--- a/01_设计书/02_DB定义书/DB定义书.xlsx
+++ b/01_设计书/02_DB定义书/DB定义书.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\SpringBoot学习\skillup\01_设计书\02_DB定义书\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08931A-745A-4F04-92AE-287AA64AFF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4A820-D1DB-4B22-8077-47BA66725529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="420" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表一览" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">部门MST表!$A$1:$N$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">加班时间集计结果表!$A$1:$O$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">考勤表!$A$1:$O$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">项目情报表!$A$1:$O$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">项目情报表!$A$1:$O$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">员工情报表!$A$1:$O$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">账号情报表!$A$1:$O$65</definedName>
   </definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="86">
   <si>
     <t>HYRON(D311)_考勤系统</t>
   </si>
@@ -138,14 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ο</t>
   </si>
   <si>
@@ -202,41 +194,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>char</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(7)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>登录时间</t>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nsert_time</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -266,23 +224,6 @@
     <t>更新时间</t>
   </si>
   <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pdate_time</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Datetime</t>
   </si>
   <si>
@@ -399,23 +340,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nteger</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>work_time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -469,6 +393,18 @@
   </si>
   <si>
     <t>tinyint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -715,7 +651,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,11 +710,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,12 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1113,219 +1049,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="15" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="15" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>8</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="C16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>9</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I3:I4"/>
@@ -1342,6 +1268,16 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1372,82 +1308,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="15" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="36"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="36"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1484,82 +1420,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="15" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="36"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="36"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1582,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFBB427-8B83-48A3-A11C-062E6D8FA186}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1601,126 +1537,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="36"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="36"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
@@ -1738,22 +1674,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
@@ -1761,21 +1697,21 @@
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
@@ -1784,19 +1720,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1807,19 +1743,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1830,19 +1766,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1856,16 +1792,16 @@
         <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1876,19 +1812,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1899,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1922,43 +1858,31 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1996,29 +1920,9 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
   </sheetData>
   <autoFilter ref="A8:I8" xr:uid="{CAFBB427-8B83-48A3-A11C-062E6D8FA186}"/>
   <mergeCells count="19">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -2029,10 +1933,19 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F22" xr:uid="{39245FDC-8CB9-4456-BB68-93CEE4A7D1C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F21" xr:uid="{39245FDC-8CB9-4456-BB68-93CEE4A7D1C1}">
       <formula1>"Ο,X"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2046,7 +1959,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2059,126 +1972,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="36"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="36"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
@@ -2196,19 +2109,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="5"/>
@@ -2219,19 +2132,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2372,15 +2285,6 @@
   </sheetData>
   <autoFilter ref="A8:I8" xr:uid="{1B72B6AA-B34F-4275-A85E-69A3D08ACCB8}"/>
   <mergeCells count="19">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -2391,6 +2295,15 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -2408,7 +2321,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2421,126 +2334,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="36"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="36"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
@@ -2558,19 +2471,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="5"/>
@@ -2581,19 +2494,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2604,19 +2517,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2627,19 +2540,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2650,19 +2563,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2673,19 +2586,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2696,19 +2609,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2719,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2742,19 +2655,19 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2765,19 +2678,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2791,16 +2704,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2838,6 +2751,489 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A8:I8" xr:uid="{7C2494F3-A804-4EDF-9D5A-99EB811EB966}"/>
+  <mergeCells count="19">
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F22" xr:uid="{68F76EF4-AE05-44AD-B5E7-E65514801A11}">
+      <formula1>"Ο,X"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AA5495-84E7-454A-B7F4-3BF363895370}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="15" max="15" width="0.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:I8" xr:uid="{7C2494F3-A804-4EDF-9D5A-99EB811EB966}"/>
@@ -2864,489 +3260,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F22" xr:uid="{68F76EF4-AE05-44AD-B5E7-E65514801A11}">
-      <formula1>"Ο,X"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AA5495-84E7-454A-B7F4-3BF363895370}">
-  <dimension ref="A1:O25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="15" max="15" width="0.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="36"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="36"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A8:I8" xr:uid="{7C2494F3-A804-4EDF-9D5A-99EB811EB966}"/>
-  <mergeCells count="19">
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N4"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F25" xr:uid="{5564CAC2-6E6C-445B-8E6A-D69B0EC878C8}">
       <formula1>"Ο,X"</formula1>
     </dataValidation>

--- a/01_设计书/02_DB定义书/DB定义书.xlsx
+++ b/01_设计书/02_DB定义书/DB定义书.xlsx
@@ -1,40 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\SpringBoot学习\skillup\01_设计书\02_DB定义书\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hyron\study\skillup_team2\skillup\01_设计书\02_DB定义书\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4A820-D1DB-4B22-8077-47BA66725529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="420" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="420" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="表一览" sheetId="4" r:id="rId1"/>
-    <sheet name="账号情报表" sheetId="1" r:id="rId2"/>
-    <sheet name="员工情报表" sheetId="3" r:id="rId3"/>
-    <sheet name="项目情报表" sheetId="6" r:id="rId4"/>
-    <sheet name="部门MST表" sheetId="7" r:id="rId5"/>
-    <sheet name="考勤表" sheetId="8" r:id="rId6"/>
-    <sheet name="加班时间集计结果表" sheetId="9" r:id="rId7"/>
+    <sheet name="账号情报表" sheetId="10" r:id="rId2"/>
+    <sheet name="员工情报表" sheetId="11" r:id="rId3"/>
+    <sheet name="工作履历表" sheetId="12" r:id="rId4"/>
+    <sheet name="技能信息表" sheetId="13" r:id="rId5"/>
+    <sheet name="项目情报表" sheetId="6" r:id="rId6"/>
+    <sheet name="部门MST表" sheetId="7" r:id="rId7"/>
+    <sheet name="考勤表" sheetId="8" r:id="rId8"/>
+    <sheet name="加班时间集计结果表" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">部门MST表!$A$8:$I$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">加班时间集计结果表!$A$8:$I$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">考勤表!$A$8:$I$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">项目情报表!$A$8:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">部门MST表!$A$8:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">加班时间集计结果表!$A$8:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">考勤表!$A$8:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">项目情报表!$A$8:$I$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表一览!$A$1:$O$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">部门MST表!$A$1:$N$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">加班时间集计结果表!$A$1:$O$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">考勤表!$A$1:$O$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">项目情报表!$A$1:$O$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">员工情报表!$A$1:$O$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">账号情报表!$A$1:$O$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">部门MST表!$A$1:$N$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">工作履历表!$A$1:$N$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">技能信息表!$A$1:$N$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">加班时间集计结果表!$A$1:$O$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">考勤表!$A$1:$O$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">项目情报表!$A$1:$O$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">员工情报表!$A$1:$O$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">账号情报表!$A$1:$N$58</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="231">
   <si>
     <t>HYRON(D311)_考勤系统</t>
   </si>
@@ -78,9 +81,6 @@
     <t>员工情报表</t>
   </si>
   <si>
-    <t>工作履历表</t>
-  </si>
-  <si>
     <t>技能信息表</t>
   </si>
   <si>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>项目情报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_information</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -340,79 +336,822 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>考勤表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班时间集计结果表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_time_total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作者ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(17)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_account_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号情报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李红卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_mail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>psw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atetime</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ο</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_employee_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工情报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目ID</t>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>employee_sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:男性  F:女性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+  </si>
+  <si>
+    <t>employee_birth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYY</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业学校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_university</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职年月日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>induction_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职Flg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n_job_flg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:在职  0:退职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退职年月日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resignation_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片IMG</t>
+  </si>
+  <si>
+    <r>
+      <t>employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_img</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>照片的U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RL</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_work_experience</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作履历表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李红卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>From年</t>
+  </si>
+  <si>
+    <t>from_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYY</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To年</t>
+  </si>
+  <si>
+    <t>to_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YYY</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atetime</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ο</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_skill_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能信息表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ο</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1：掌握</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0：未掌握</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_sharp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1：掌握</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0：未掌握</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1：掌握</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0：未掌握</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>c_plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.Net</t>
+  </si>
+  <si>
+    <t>net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>oracle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlServer</t>
+  </si>
+  <si>
+    <t>sqlserver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1：掌握</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0：未掌握</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jquery</t>
+  </si>
+  <si>
+    <t>jquery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thymeleaf</t>
+  </si>
+  <si>
+    <t>thymeleaf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>angular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VUE</t>
+  </si>
+  <si>
+    <t>vue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>react</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作履历表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目情报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>work_time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>考勤表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班时间集计结果表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_time_total</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作者ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>month</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(17)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
+    <t>逻辑表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +1220,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -605,15 +1351,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,90 +1399,179 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1035,220 +1873,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:E16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="15" max="15" width="3.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="15" max="15" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="17" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="17" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" s="2">
         <v>8</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="2">
         <v>9</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1281,11 +2119,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9:E9" location="账号情报表!A1" display="账号情报表" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C10:E10" location="员工情报表!A1" display="员工情报表" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C13:E13" location="项目情报表!Print_Area" display="项目情报表" xr:uid="{AACAED3D-1B75-472A-ACE7-4E6BFCDFBE10}"/>
-    <hyperlink ref="C14:E14" location="部门MST表!Print_Area" display="部门MST表" xr:uid="{78D9C49B-6AE3-4726-8669-B7CEA2A0863B}"/>
-    <hyperlink ref="C15:E15" location="考勤表!Print_Area" display="考勤表" xr:uid="{8F2F89B2-7E6D-4022-B830-C0557533E0C2}"/>
+    <hyperlink ref="C9:E9" location="账号情报表!A1" display="账号情报表"/>
+    <hyperlink ref="C10:E10" location="员工情报表!A1" display="员工情报表"/>
+    <hyperlink ref="C13:E13" location="项目情报表!Print_Area" display="项目情报表"/>
+    <hyperlink ref="C14:E14" location="部门MST表!Print_Area" display="部门MST表"/>
+    <hyperlink ref="C15:E15" location="考勤表!Print_Area" display="考勤表"/>
+    <hyperlink ref="C11:E11" location="工作履历表!Print_Area" display="工作履历表"/>
+    <hyperlink ref="C12:E12" location="技能信息表!Print_Area" display="技能信息表"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
@@ -1293,372 +2133,2155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="4.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="15" max="15" width="3.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="13.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9" style="14"/>
+    <col min="7" max="7" width="10.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9" style="14"/>
+    <col min="15" max="15" width="3.5" style="14" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="63"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5">
+      <c r="A11" s="15">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5">
+      <c r="A12" s="15">
+        <v>5</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5">
+      <c r="A13" s="15">
+        <v>6</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5">
+      <c r="A14" s="15">
         <v>7</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="35"/>
+      <c r="C14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="19">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:F14">
+      <formula1>"Ο,X"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9" style="14"/>
+    <col min="7" max="7" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="14" customWidth="1"/>
+    <col min="9" max="14" width="9" style="14"/>
+    <col min="15" max="15" width="3.5" style="14" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="63"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5">
+      <c r="A11" s="15">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" ht="17.25" customHeight="1">
+      <c r="A12" s="15">
+        <v>5</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5">
+      <c r="A13" s="15">
+        <v>6</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5">
+      <c r="A14" s="15">
+        <v>7</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5">
+      <c r="A15" s="15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5">
+      <c r="A16" s="15">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5">
+      <c r="A17" s="15">
+        <v>10</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5">
+      <c r="A18" s="15">
+        <v>11</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5">
+      <c r="A19" s="15">
+        <v>12</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5">
+      <c r="A20" s="15">
+        <v>13</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5">
+      <c r="A21" s="15">
+        <v>14</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5">
+      <c r="A22" s="15">
+        <v>15</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5">
+      <c r="A23" s="15">
+        <v>16</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F20 E8:E23">
+      <formula1>"Ο,X"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="9.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="14" customWidth="1"/>
+    <col min="6" max="14" width="9" style="14"/>
+    <col min="15" max="15" width="3.5" style="14" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="63"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5">
+      <c r="A11" s="15">
+        <v>5</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5">
+      <c r="A13" s="15">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5">
+      <c r="A14" s="15">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5">
+      <c r="A15" s="15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:F15">
+      <formula1>"Ο,X"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="4.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="15" max="15" width="3.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9" style="14"/>
+    <col min="7" max="8" width="19.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="14"/>
+    <col min="12" max="12" width="7.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="14"/>
+    <col min="15" max="15" width="0.25" style="14" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="63"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5">
+      <c r="A11" s="15">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5">
+      <c r="A12" s="15">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5">
+      <c r="A13" s="15">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5">
+      <c r="A14" s="15">
+        <v>7</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5">
+      <c r="A15" s="15">
         <v>8</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="17" t="s">
+      <c r="B15" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5">
+      <c r="A16" s="15">
+        <v>9</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5">
+      <c r="A17" s="15">
+        <v>10</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5">
+      <c r="A18" s="15">
+        <v>11</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5">
+      <c r="A19" s="15">
+        <v>12</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="19"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5">
+      <c r="A20" s="15">
+        <v>13</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5">
+      <c r="A21" s="15">
+        <v>14</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5">
+      <c r="A22" s="15">
+        <v>15</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5">
+      <c r="A23" s="15">
+        <v>16</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5">
+      <c r="A24" s="15">
+        <v>17</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5">
+      <c r="A25" s="15">
+        <v>18</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.5">
+      <c r="A26" s="15">
+        <v>19</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5">
+      <c r="A27" s="15">
+        <v>20</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.5">
+      <c r="A28" s="15">
+        <v>21</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5">
+      <c r="A29" s="15">
+        <v>22</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.5">
+      <c r="A30" s="15">
+        <v>23</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="35"/>
+      <c r="C30" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="19">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F28 E8:E30">
+      <formula1>"Ο,X"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFBB427-8B83-48A3-A11C-062E6D8FA186}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="3.5546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="15" max="15" width="3.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="38" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="67"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="67"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="38" t="s">
+      <c r="B6" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="C6" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="D6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="E6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="F6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="G6" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="H6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="I6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1669,191 +4292,191 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="3">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="3">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="3">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="3">
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="16.5">
       <c r="A15" s="3">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="3">
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="3">
         <v>9</v>
       </c>
@@ -1861,22 +4484,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1887,7 +4510,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1898,7 +4521,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1909,7 +4532,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1921,7 +4544,7 @@
       <c r="I21" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:I8" xr:uid="{CAFBB427-8B83-48A3-A11C-062E6D8FA186}"/>
+  <autoFilter ref="A8:I8"/>
   <mergeCells count="19">
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="A6:A7"/>
@@ -1945,155 +4568,155 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F21" xr:uid="{39245FDC-8CB9-4456-BB68-93CEE4A7D1C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F21">
       <formula1>"Ο,X"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B72B6AA-B34F-4275-A85E-69A3D08ACCB8}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="15" max="15" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="17" t="s">
+      <c r="B3" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="67"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="67"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="C6" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="D6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="E6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="F6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="G6" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="H6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="I6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2104,53 +4727,53 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -2161,7 +4784,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -2172,7 +4795,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -2183,7 +4806,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -2194,7 +4817,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -2205,7 +4828,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -2216,7 +4839,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -2227,7 +4850,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -2238,7 +4861,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2249,7 +4872,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2260,7 +4883,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2271,7 +4894,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2283,7 +4906,7 @@
       <c r="I22" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:I8" xr:uid="{1B72B6AA-B34F-4275-A85E-69A3D08ACCB8}"/>
+  <autoFilter ref="A8:I8"/>
   <mergeCells count="19">
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="A6:A7"/>
@@ -2307,7 +4930,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F22" xr:uid="{43506C91-4E5B-45F9-A17E-96A59CAD4D3A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F22">
       <formula1>"Ο,X"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2316,146 +4939,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2494F3-A804-4EDF-9D5A-99EB811EB966}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="15" max="15" width="0.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="0.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="17" t="s">
+      <c r="B3" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="67"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="67"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="C6" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="D6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="E6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="F6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="G6" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="H6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="I6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2466,237 +5089,237 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="3">
         <v>3</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="3">
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="3">
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="3">
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="16.5">
       <c r="A15" s="3">
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="3">
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="3">
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="3">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="3">
         <v>11</v>
       </c>
@@ -2704,22 +5327,22 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2730,7 +5353,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2741,7 +5364,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2753,7 +5376,7 @@
       <c r="I22" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:I8" xr:uid="{7C2494F3-A804-4EDF-9D5A-99EB811EB966}"/>
+  <autoFilter ref="A8:I8"/>
   <mergeCells count="19">
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="A6:A7"/>
@@ -2777,7 +5400,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F22" xr:uid="{68F76EF4-AE05-44AD-B5E7-E65514801A11}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F22">
       <formula1>"Ο,X"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2786,146 +5409,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AA5495-84E7-454A-B7F4-3BF363895370}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="15" max="15" width="0.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="0.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="17" t="s">
+      <c r="B3" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="67"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="67"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="C6" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="D6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="E6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="F6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="G6" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="H6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="I6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2936,191 +5559,191 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="3">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="16.5">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3133,7 +5756,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3146,7 +5769,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3159,7 +5782,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3172,7 +5795,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3185,7 +5808,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3198,7 +5821,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3211,7 +5834,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3224,7 +5847,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3236,7 +5859,7 @@
       <c r="I25" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:I8" xr:uid="{7C2494F3-A804-4EDF-9D5A-99EB811EB966}"/>
+  <autoFilter ref="A8:I8"/>
   <mergeCells count="19">
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:A4"/>
@@ -3260,7 +5883,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F25" xr:uid="{5564CAC2-6E6C-445B-8E6A-D69B0EC878C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F25">
       <formula1>"Ο,X"</formula1>
     </dataValidation>
   </dataValidations>
